--- a/public/excel/Osmosis.xlsx
+++ b/public/excel/Osmosis.xlsx
@@ -1,54 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lavienuie/Skripsi/E-LKPD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5841630276f47a08/SKRIPSI SAKRAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E3BF76D-476E-8E48-9CC0-1D61A7A9E5FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{4C73FA71-12E1-43EE-88C5-5CD34C56299E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E238CB02-A232-4F9C-8BD5-2FA00E9DEC80}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{51EE6B10-7A12-7541-981C-67C006043959}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2489212E-9D80-4690-B6EB-52ED2F45EFB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Awal" sheetId="2" r:id="rId1"/>
+    <sheet name="Rata-Rata" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konsentrasi Larutan </t>
-  </si>
-  <si>
-    <t>Tekstur Awal</t>
-  </si>
-  <si>
-    <t>Panjang Awal (cm)</t>
-  </si>
-  <si>
-    <t>Panjang Akhir (cm)</t>
-  </si>
-  <si>
-    <t>Perubahan Panjang ()</t>
-  </si>
-  <si>
-    <t>Rata-rata perubahan panjang</t>
-  </si>
-  <si>
-    <t>Tekstur Akhir</t>
+    <t>y</t>
   </si>
   <si>
     <t>Gelas A (0%)</t>
@@ -59,6 +48,15 @@
   <si>
     <t>Gelas C (30%)</t>
   </si>
+  <si>
+    <t>Panjang Akhir (cm)</t>
+  </si>
+  <si>
+    <t>Perubahan Panjang (cm)</t>
+  </si>
+  <si>
+    <t>Panjang Awal (cm)</t>
+  </si>
 </sst>
 </file>
 
@@ -66,15 +64,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -88,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,59 +108,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -183,8 +138,2492 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>DATA AWAL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Awal'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Panjang Awal (cm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="65000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="65000"/>
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="65000"/>
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="65000"/>
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Data Awal'!$C$5:$D$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gelas A (0%)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gelas B (15%)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Gelas C (30%)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Awal'!$E$5:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DE7-44C5-98C0-DE5EC8FD65FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Awal'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Panjang Akhir (cm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Data Awal'!$C$5:$D$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gelas A (0%)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gelas B (15%)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Gelas C (30%)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Awal'!$F$5:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DE7-44C5-98C0-DE5EC8FD65FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Awal'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perubahan Panjang (cm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="65000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="65000"/>
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="65000"/>
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="65000"/>
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Data Awal'!$C$5:$D$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gelas A (0%)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gelas B (15%)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Gelas C (30%)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Awal'!$G$5:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4DE7-44C5-98C0-DE5EC8FD65FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="355"/>
+        <c:overlap val="-70"/>
+        <c:axId val="1647797295"/>
+        <c:axId val="1647791471"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1647797295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>KONSENTRASI LARUTAN GULA (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647791471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1647791471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>PANJANG KENTANG (CM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647797295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1260" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hubungan Konsentrasi terhadap perubahan panjang akhir</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1260" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rata-Rata'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rata-Rata'!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Gelas A (0%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gelas B (15%)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gelas C (30%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rata-Rata'!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B746-452F-BB6C-93E2F562A54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="355"/>
+        <c:overlap val="-70"/>
+        <c:axId val="8351423"/>
+        <c:axId val="8353087"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="8351423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Konsentrasi larutan gula (%) per 100 mL</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8353087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8353087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Rata-rata Perubahan Panjang Akhir (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777776E-2"/>
+              <c:y val="0.16745370370370372"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8351423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="210">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="210">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>49068</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>145802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>426357</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5A1939-3829-456E-8997-7B5D72EFA5D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DE40DF-A81F-418D-9E4D-F0A8E4BC5BD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,165 +2918,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FC27F-354B-644E-9FC7-3B31D170FD48}">
-  <dimension ref="B3:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC56CA88-1C98-4440-9338-CA61B170F9B2}">
+  <dimension ref="C4:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECDD7ED-4E53-4285-AC75-115CEFD54CD7}">
+  <dimension ref="B3:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="1"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="H7:H9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>